--- a/data/out/kaggle/fifa/active_suspense_results.xlsx
+++ b/data/out/kaggle/fifa/active_suspense_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,32 +459,42 @@
           <t>active_suspense_count</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,187 +503,232 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,97 +737,9638 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2022</v>
+        <v>1986</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2022</v>
+        <v>1986</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D16" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D18" t="n">
+        <v>84</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D21" t="n">
+        <v>42</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D22" t="n">
+        <v>68</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D23" t="n">
+        <v>70</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D24" t="n">
+        <v>87</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D26" t="n">
+        <v>62</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D31" t="n">
+        <v>34</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D32" t="n">
+        <v>62</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D33" t="n">
+        <v>80</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D35" t="n">
+        <v>49</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D36" t="n">
+        <v>63</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D37" t="n">
+        <v>78</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D38" t="n">
+        <v>83</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D42" t="n">
+        <v>62</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D43" t="n">
+        <v>63</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D44" t="n">
+        <v>68</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D45" t="n">
+        <v>32</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D46" t="n">
+        <v>75</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D47" t="n">
+        <v>81</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D48" t="n">
+        <v>87</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D52" t="n">
+        <v>46</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D53" t="n">
+        <v>88</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D54" t="n">
+        <v>90</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D55" t="n">
+        <v>90</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D58" t="n">
+        <v>38</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D59" t="n">
+        <v>90</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D61" t="n">
+        <v>58</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D62" t="n">
+        <v>71</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D63" t="n">
+        <v>18</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D64" t="n">
+        <v>44</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D65" t="n">
+        <v>90</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D66" t="n">
+        <v>15</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D67" t="n">
+        <v>23</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D68" t="n">
+        <v>41</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D69" t="n">
+        <v>44</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D70" t="n">
+        <v>46</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D71" t="n">
+        <v>47</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D72" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D73" t="n">
+        <v>75</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D74" t="n">
+        <v>81</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D75" t="n">
+        <v>12</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D76" t="n">
+        <v>19</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D77" t="n">
+        <v>20</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D78" t="n">
+        <v>37</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D79" t="n">
+        <v>52</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D80" t="n">
+        <v>63</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D81" t="n">
+        <v>66</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D82" t="n">
+        <v>67</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D83" t="n">
+        <v>70</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D84" t="n">
+        <v>45</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D85" t="n">
+        <v>61</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D87" t="n">
+        <v>90</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D88" t="n">
+        <v>48</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D89" t="n">
+        <v>57</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D91" t="n">
+        <v>43</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D92" t="n">
+        <v>47</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D93" t="n">
+        <v>77</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D94" t="n">
+        <v>23</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D95" t="n">
+        <v>46</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D96" t="n">
+        <v>78</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D97" t="n">
+        <v>83</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D98" t="n">
+        <v>85</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D99" t="n">
+        <v>89</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D100" t="n">
+        <v>20</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D101" t="n">
+        <v>48</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D102" t="n">
+        <v>56</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D103" t="n">
+        <v>90</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D104" t="n">
+        <v>90</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D106" t="n">
+        <v>18</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D107" t="n">
+        <v>42</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D108" t="n">
+        <v>45</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D109" t="n">
+        <v>56</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D110" t="n">
+        <v>74</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D111" t="n">
+        <v>90</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D115" t="n">
+        <v>18</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D116" t="n">
+        <v>55</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D117" t="n">
+        <v>58</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D118" t="n">
+        <v>58</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D119" t="n">
+        <v>81</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D120" t="n">
+        <v>86</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D121" t="n">
+        <v>88</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D122" t="n">
+        <v>90</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D125" t="n">
+        <v>18</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D126" t="n">
+        <v>72</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D127" t="n">
+        <v>75</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D128" t="n">
+        <v>90</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D130" t="n">
+        <v>50</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D131" t="n">
+        <v>57</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D134" t="n">
+        <v>29</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D135" t="n">
+        <v>71</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Group H</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C136" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D136" t="n">
+        <v>36</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D137" t="n">
+        <v>39</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D138" t="n">
+        <v>54</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D139" t="n">
+        <v>74</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D143" t="n">
+        <v>38</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D144" t="n">
+        <v>46</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D145" t="n">
+        <v>67</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D146" t="n">
+        <v>69</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D147" t="n">
+        <v>88</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D149" t="n">
+        <v>31</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D150" t="n">
+        <v>45</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D151" t="n">
+        <v>45</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D152" t="n">
+        <v>53</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D153" t="n">
+        <v>56</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D154" t="n">
+        <v>65</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D155" t="n">
+        <v>73</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D156" t="n">
+        <v>84</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D159" t="n">
+        <v>10</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D161" t="n">
+        <v>38</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D162" t="n">
+        <v>39</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D163" t="n">
+        <v>56</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D164" t="n">
+        <v>62</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D165" t="n">
+        <v>64</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D169" t="n">
+        <v>66</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D170" t="n">
+        <v>70</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D171" t="n">
+        <v>83</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D172" t="n">
+        <v>7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D173" t="n">
+        <v>50</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D174" t="n">
+        <v>61</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D175" t="n">
+        <v>79</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D176" t="n">
+        <v>87</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D177" t="n">
+        <v>59</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D178" t="n">
+        <v>88</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D179" t="n">
+        <v>34</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D180" t="n">
+        <v>48</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D181" t="n">
+        <v>85</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D183" t="n">
+        <v>48</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D184" t="n">
+        <v>52</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D185" t="n">
+        <v>75</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D186" t="n">
+        <v>78</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D187" t="n">
+        <v>82</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D188" t="n">
+        <v>88</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D190" t="n">
+        <v>25</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D191" t="n">
+        <v>33</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D192" t="n">
+        <v>44</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D193" t="n">
+        <v>57</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D194" t="n">
+        <v>65</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D195" t="n">
+        <v>25</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D196" t="n">
+        <v>34</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D197" t="n">
+        <v>51</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D198" t="n">
+        <v>85</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D199" t="n">
+        <v>86</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D200" t="n">
+        <v>90</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Serbia and Montenegro</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D201" t="n">
+        <v>10</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Serbia and Montenegro</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D202" t="n">
+        <v>20</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Serbia and Montenegro</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D203" t="n">
+        <v>37</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D204" t="n">
+        <v>67</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D205" t="n">
+        <v>86</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D207" t="n">
+        <v>24</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D208" t="n">
+        <v>29</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D209" t="n">
+        <v>60</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D210" t="n">
+        <v>75</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D211" t="n">
+        <v>22</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D212" t="n">
+        <v>26</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D213" t="n">
+        <v>43</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D214" t="n">
+        <v>45</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D215" t="n">
+        <v>87</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D217" t="n">
+        <v>34</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D218" t="n">
+        <v>38</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D219" t="n">
+        <v>45</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D220" t="n">
+        <v>53</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D221" t="n">
+        <v>56</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D222" t="n">
+        <v>59</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D223" t="n">
+        <v>79</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D224" t="n">
+        <v>81</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D225" t="n">
+        <v>23</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D226" t="n">
+        <v>55</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D227" t="n">
+        <v>61</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D228" t="n">
+        <v>77</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D229" t="n">
+        <v>36</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D230" t="n">
+        <v>70</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D231" t="n">
+        <v>20</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D232" t="n">
+        <v>37</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D233" t="n">
+        <v>43</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D234" t="n">
+        <v>70</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D235" t="n">
+        <v>12</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D236" t="n">
+        <v>38</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D237" t="n">
+        <v>49</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D238" t="n">
+        <v>69</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D239" t="n">
+        <v>77</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D240" t="n">
+        <v>89</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D241" t="n">
+        <v>23</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D242" t="n">
+        <v>90</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D243" t="n">
+        <v>60</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D244" t="n">
+        <v>69</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D245" t="n">
+        <v>73</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D246" t="n">
+        <v>84</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D247" t="n">
+        <v>17</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D248" t="n">
+        <v>30</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D249" t="n">
+        <v>36</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D250" t="n">
+        <v>65</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D251" t="n">
+        <v>81</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D252" t="n">
+        <v>83</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D253" t="n">
+        <v>87</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D254" t="n">
+        <v>25</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D255" t="n">
+        <v>73</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D256" t="n">
+        <v>81</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D257" t="n">
+        <v>89</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D258" t="n">
+        <v>90</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D259" t="n">
+        <v>14</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D260" t="n">
+        <v>20</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D261" t="n">
+        <v>82</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D262" t="n">
+        <v>24</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D263" t="n">
+        <v>37</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D264" t="n">
+        <v>47</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D265" t="n">
+        <v>17</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D266" t="n">
+        <v>26</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D267" t="n">
+        <v>35</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D268" t="n">
+        <v>49</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D269" t="n">
+        <v>72</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D270" t="n">
+        <v>75</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D271" t="n">
+        <v>82</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D272" t="n">
+        <v>84</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D273" t="n">
+        <v>87</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D274" t="n">
+        <v>36</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D275" t="n">
+        <v>69</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D276" t="n">
+        <v>77</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D277" t="n">
+        <v>82</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D278" t="n">
+        <v>90</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D279" t="n">
+        <v>17</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D280" t="n">
+        <v>42</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D281" t="n">
+        <v>45</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D282" t="n">
+        <v>55</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D283" t="n">
+        <v>74</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D284" t="n">
+        <v>82</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D285" t="n">
+        <v>90</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D286" t="n">
+        <v>90</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D287" t="n">
+        <v>81</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D288" t="n">
+        <v>6</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D289" t="n">
+        <v>31</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D290" t="n">
+        <v>71</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D291" t="n">
+        <v>3</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D292" t="n">
+        <v>4</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D293" t="n">
+        <v>23</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D294" t="n">
+        <v>45</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D295" t="n">
+        <v>47</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D296" t="n">
+        <v>50</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D297" t="n">
+        <v>59</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D298" t="n">
+        <v>82</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D299" t="n">
+        <v>83</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D300" t="n">
+        <v>31</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D301" t="n">
+        <v>55</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D302" t="n">
+        <v>57</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D303" t="n">
+        <v>80</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D304" t="n">
+        <v>6</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D305" t="n">
+        <v>60</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D306" t="n">
+        <v>78</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D307" t="n">
+        <v>10</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D308" t="n">
+        <v>22</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D309" t="n">
+        <v>23</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D310" t="n">
+        <v>45</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D311" t="n">
+        <v>90</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D312" t="n">
+        <v>90</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D313" t="n">
+        <v>14</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D314" t="n">
+        <v>19</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D315" t="n">
+        <v>45</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D316" t="n">
+        <v>81</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D317" t="n">
+        <v>90</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D318" t="n">
+        <v>90</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D319" t="n">
+        <v>18</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D320" t="n">
+        <v>50</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D321" t="n">
+        <v>14</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D322" t="n">
+        <v>51</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D323" t="n">
+        <v>53</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D324" t="n">
+        <v>76</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D325" t="n">
+        <v>86</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D326" t="n">
+        <v>90</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D327" t="n">
+        <v>31</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D328" t="n">
+        <v>36</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D329" t="n">
+        <v>56</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D330" t="n">
+        <v>68</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D331" t="n">
+        <v>88</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D332" t="n">
+        <v>90</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D333" t="n">
+        <v>50</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D334" t="n">
+        <v>62</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D335" t="n">
+        <v>74</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D336" t="n">
+        <v>90</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D337" t="n">
+        <v>90</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D338" t="n">
+        <v>33</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D339" t="n">
+        <v>51</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D340" t="n">
+        <v>51</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D341" t="n">
+        <v>66</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D342" t="n">
+        <v>59</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D343" t="n">
+        <v>74</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
         <v>2022</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D344" t="n">
+        <v>26</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D345" t="n">
+        <v>44</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D346" t="n">
+        <v>49</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D347" t="n">
+        <v>67</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D348" t="n">
+        <v>70</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D349" t="n">
+        <v>38</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D350" t="n">
+        <v>50</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D351" t="n">
+        <v>51</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D352" t="n">
+        <v>68</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D353" t="n">
+        <v>46</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D354" t="n">
+        <v>47</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D355" t="n">
+        <v>52</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D356" t="n">
+        <v>67</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D357" t="n">
         <v>90</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D358" t="n">
+        <v>58</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D359" t="n">
+        <v>60</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D360" t="n">
+        <v>10</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D361" t="n">
+        <v>11</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D362" t="n">
+        <v>48</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D363" t="n">
+        <v>51</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D364" t="n">
+        <v>58</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D365" t="n">
+        <v>70</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D366" t="n">
+        <v>73</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D367" t="n">
+        <v>85</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D368" t="n">
+        <v>89</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D369" t="n">
+        <v>4</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D370" t="n">
+        <v>23</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D371" t="n">
+        <v>40</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D372" t="n">
+        <v>20</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D373" t="n">
+        <v>26</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D374" t="n">
+        <v>35</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D375" t="n">
+        <v>44</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D376" t="n">
+        <v>48</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D377" t="n">
+        <v>90</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D378" t="n">
+        <v>5</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Condition for moving to 2nd not met</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D379" t="n">
+        <v>26</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D380" t="n">
+        <v>27</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D381" t="n">
+        <v>32</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D382" t="n">
+        <v>90</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Active suspense met</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/out/kaggle/fifa/active_suspense_results.xlsx
+++ b/data/out/kaggle/fifa/active_suspense_results.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9821,14 +9821,14 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9925,7 +9925,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Active suspense met</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
